--- a/Ej4/mediciones.xlsx
+++ b/Ej4/mediciones.xlsx
@@ -432,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -454,7 +454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,8 +473,11 @@
       <c r="G2">
         <v>-38</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -497,7 +500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -507,11 +510,16 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>F3-F2</f>
+        <v>132</v>
+      </c>
+      <c r="G4">
+        <f>G3-G2</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -522,12 +530,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
